--- a/data/minfin/7_questions.xlsx
+++ b/data/minfin/7_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>question</t>
   </si>
@@ -102,33 +102,18 @@
     <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году общий объем доходов федерального бюджета составит 13487 млрд. рублей. Из них нефтегазовые доходы составят 5050 млрд. рублей, НДС – 4895 млрд. рублей, Налог на прибыль - 600 млрд. рублей, Акцизы – 872 млрд. рублей, Таможенные пошлины – 527 млрд. рублей, прочие доходы составят 1542 млрд. рублей</t>
   </si>
   <si>
-    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году общий объем доходов федерального бюджета составит 13487 млрд. рублей. Из них нефтегазовые доходы составят 5050 млрд. рублей (37,4%), НДС – 4895 млрд. рублей (36,3%), Налог на прибыль - 600 млрд. рублей (4,5%), Акцизы – 872 млрд. рублей (6,5%), Таможенные пошлины – 527 млрд. рублей (3,9%), прочие доходы составят 1542 млрд. рублей (11,4%)</t>
-  </si>
-  <si>
     <t>Основные статьи расходов бюджета в 2017 году?</t>
   </si>
   <si>
     <t>Основные статьи, Расходы, План расходов, Федеральный, Бюджет, 2017</t>
   </si>
   <si>
-    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году общий объем расходов федерального бюджета составит 16241 млрд. рублей. Из них расходы на социальную политику составят 5092 млрд. рублей, на секретные и строго секретные – 2768 млрд. рублей, на экономику – 2069 млрд. рублей, на общегосударственные вопросы – 1141 млрд. рублей, на безопасность и правоохранительную деятельность – 1271 млрд. рублей, на оборону – 1021 млрд. рублей, на помощь региональным бюджетам – 757 млрд. рублей, на обслуживание государственного долга – 728 млрд. рублей, на образование – 595 млрд. рублей, на здравоохранение – 378 млрд. рублей, прочие расходы 421 млрд. рублей</t>
-  </si>
-  <si>
     <t>Какие регионы являются «донорами», то есть не получающими дотации на выравнивание бюджетной обеспеченности в 2017 году?</t>
   </si>
   <si>
     <t>Регионы, Доноры, Не получающие дотации, На выравнивание бюджетной обеспеченности, 2017</t>
   </si>
   <si>
-    <t>В 2017 году регионами «донорами» являются 13 субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский автономный округ, Ямало-Ненецкий автономный округ, Тюменская область, Калужская область, Сахалинская область, Самарская область, Свердловская область, Московская область, Ленинградская область, Ненецкий автономный округ, Республика Татарстан</t>
-  </si>
-  <si>
-    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году общий объем расходов федерального бюджета составит 16241 млрд. рублей. Из них расходы на социальную политику составят 5092 млрд. рублей (31,4%), на секретные и строго секретные – 2768 млрд. рублей (17%), на экономику – 2069 млрд. рублей (12,9%), на общегосударственные вопросы – 1141 млрд. рублей (7%), на безопасность и правоохранительную деятельность – 1271 млрд. рублей (7,7%), на оборону – 1021 млрд. рублей (6,3%), на помощь региональным бюджетам – 757 млрд. рублей (4,6%), на обслуживание государственного долга – 728 млрд. рублей (4,5%), на образование – 595 млрд. рублей (3,7%), на здравоохранение – 378 млрд. рублей (2,3%), прочие 421 млрд. рублей (2,6%)</t>
-  </si>
-  <si>
-    <t>В 2017 году регионами «донорами», не получающими дотации на выравнивание бюджетной обеспеченности, являются 13 субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский автономный округ, Ямало-Ненецкий автономный округ, Тюменская область, Калужская область, Сахалинская область, Самарская область, Свердловская область, Московская область, Ленинградская область, Ненецкий автономный округ, Республика Татарстан</t>
-  </si>
-  <si>
     <t>Какова была средняя цена на нефть марки Urals в 2016 году?</t>
   </si>
   <si>
@@ -138,18 +123,12 @@
     <t>В 2016 году средняя цена на нефть марки Urals составила 41,7 долларов за баррель</t>
   </si>
   <si>
-    <t>В 2016 году средняя цена на нефть марки Urals составила $41,7 за баррель</t>
-  </si>
-  <si>
     <t>Какой был средний курс рубля к доллару США в 2016 году?</t>
   </si>
   <si>
     <t>Средний курс рубля к доллару США в 2016 году составил 66,9 рублей за доллар</t>
   </si>
   <si>
-    <t>Средний курс рубля к доллару США в 2016 году составил 66,9 руб./долл</t>
-  </si>
-  <si>
     <t>Средний курс, рубль к доллару, доллар США, 2016</t>
   </si>
   <si>
@@ -162,9 +141,6 @@
     <t>Федеральный бюджет 2017 года составлен из расчета стоимости нефти марки Urals в 40 долларов за баррель</t>
   </si>
   <si>
-    <t>Федеральный бюджет 2017 года составлен из расчета стоимости нефти марки Urals в $40 за баррель</t>
-  </si>
-  <si>
     <t>В каких валютах Минфин России выпускает ОФЗ?</t>
   </si>
   <si>
@@ -201,9 +177,6 @@
     <t>Министерство финансов Российской Федерации утвердило валютную структуру средств Резервного фонда: средства в долларах США составляют 45% от объема фонда, в Евро – 45%, в Фунтах стерлингов – 10%</t>
   </si>
   <si>
-    <t>Министерство финансов Российской Федерации утвердило следующую валютную структуру средств Резервного фонда: Доллар США – 45%, Евро – 45%, Фунт стерлингов – 10%</t>
-  </si>
-  <si>
     <t>Какой объединенный документ заменит в 2017 году «Основные направления бюджетной политики»?</t>
   </si>
   <si>
@@ -213,52 +186,1366 @@
     <t>В 2017 году документ «Основные направления бюджетной политики» будет заменен на объединенный документ «Основные направления бюджетной, налоговой и таможенно-тарифной политики»</t>
   </si>
   <si>
-    <t>В соответствии с Федеральным законом от 28.03.2017 N 48-ФЗ «О внесении изменений в Бюджетный кодекс Российской Федерации» в 2017 году документ «Основные направления бюджетной политики» будет заменены на объединенный документ «Основные направления бюджетной, налоговой и таможенно-тарифной политики». Формирование единого документа позволит исключить внутренние противоречия между предлагаемыми мерами в рамках общей экономической политики страны.
+    <t>Что определяют «бюджетные правила»?</t>
+  </si>
+  <si>
+    <t>Бюджетные правила, Формирование бюджета, Определение, Определяет, Функции</t>
+  </si>
+  <si>
+    <r>
+      <t>«Бюджетное правило»</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>это механизм формирования российского бюджета определяет максимальный уровень расходов бюджета, исходя из цены на нефть. Основными функциями бюджетного правила являются определение алгоритма распределения нефтегазовых доходов в части суверенных фондов и установление ограничения на расходную часть бюджета</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В настоящее время Министерство финансов Российской Федерации выпускает </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">рублевые облигации федерального займа </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">и </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>евробонды в долларах США</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>общий объем доходов федерального бюджета</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> составит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>13487 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Из них</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> нефтегазовые доходы составят </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5050 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(37,4%),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> НДС – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4895 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(36,3%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Налог на прибыль - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>600 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(4,5%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Акцизы – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>872 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(6,5%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Таможенные пошлины – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>527 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(3,9%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, прочие доходы составят </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1542 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(11,4%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>общий объем расходов федерального бюджета</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> составит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>16241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. Из них расходы на социальную политику составят </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5092 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(31,4%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на секретные и строго секретные – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2768 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(17%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на экономику – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2069 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(12,9%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на общегосударственные вопросы – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1141 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(7%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на безопасность и правоохранительную деятельность – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1271 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(7,7%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на оборону – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1021 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(6,3%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на помощь региональным бюджетам – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>757 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(4,6%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на обслуживание государственного долга – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>728 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (4,5%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на образование – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>595 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(3,7%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на здравоохранение – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>378 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(2,3%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, прочие </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>421 млрд. рублей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(2,6%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году средняя цена на нефть марки Urals составила </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>$41,7 за баррель</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Федеральный бюджет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> года составлен из расчета стоимости нефти марки Urals в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>$40 за баррель</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Средний курс рубля к доллару США в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году составил </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>66,9 руб./долл</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Нефтегазовые доходы в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году составили </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>36,4%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> доходов федерального бюджета Российской федерации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Доходы от инвестирования средств Резервного фонда в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году составили </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>26,4 млрд. рублей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Министерство финансов Российской Федерации утвердило следующую валютную структуру средств Резервного фонда: Доллар США – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>45%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Евро – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>45%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Фунт стерлингов – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии с Федеральным законом от 28.03.2017 N 48-ФЗ «О внесении изменений в Бюджетный кодекс Российской Федерации» в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году документ «Основные направления бюджетной политики» будет заменен на </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>объединенный документ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Основные направления бюджетной, налоговой и таможенно-тарифной политики</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>». Формирование единого документа позволит исключить внутренние противоречия между предлагаемыми мерами в рамках общей экономической политики страны.
 Полномочия по разработке документа «Основные направления бюджетной, налоговой и таможенно-тарифной политики» возлагаются на Минфин России</t>
-  </si>
-  <si>
-    <t>Что определяют «бюджетные правила»?</t>
-  </si>
-  <si>
-    <t>Бюджетные правила, Формирование бюджета, Определение, Определяет, Функции</t>
-  </si>
-  <si>
-    <t>«Бюджетное правило» -  механизм формирования российского бюджета, который определяет максимальный уровень расходов, исходя из цены на нефть. Основными функциями бюджетного правила являются: 
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>«Бюджетное правило»</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-  механизм формирования российского бюджета, который определяет максимальный уровень расходов, исходя из цены на нефть. Основными функциями бюджетного правила являются: 
 1) Определение алгоритма распределения нефтегазовых доходов в части суверенных фондов; 
 2) Установление ограничения на расходную часть бюджета</t>
-  </si>
-  <si>
-    <r>
-      <t>«Бюджетное правило»</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>это механизм формирования российского бюджета определяет максимальный уровень расходов бюджета, исходя из цены на нефть. Основными функциями бюджетного правила являются определение алгоритма распределения нефтегазовых доходов в части суверенных фондов и установление ограничения на расходную часть бюджета</t>
-    </r>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году регионами «донорами» являются </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округа, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
+    </r>
+  </si>
+  <si>
+    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году общий объем расходов федерального бюджета составит 16241 млрд. рублей. Из них расходы на социальную политику составят 31,4%, на секретные и строго секретные – 17%, на экономику – 12,9%, на общегосударственные вопросы – 7%, на безопасность и правоохранительную деятельность – 7,7%, на оборону – 6,3%</t>
+  </si>
+  <si>
+    <t>В 2017 году регионами «донорами» являются 13 субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округа, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,13 +1575,61 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,7 +1644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -332,6 +1667,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,16 +1995,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="67" style="2" customWidth="1"/>
-    <col min="4" max="4" width="94" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="103.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="41" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="68.5703125" style="2" customWidth="1"/>
@@ -714,18 +2055,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="126">
+    <row r="2" spans="1:12" ht="138.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
@@ -738,21 +2079,21 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="204.75">
+    <row r="3" spans="1:12" ht="141.75">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -762,21 +2103,21 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="126">
+    <row r="4" spans="1:12" ht="78.75">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -786,21 +2127,21 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="47.25">
+    <row r="5" spans="1:12" ht="31.5">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -810,21 +2151,21 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="47.25">
+    <row r="6" spans="1:12" ht="31.5">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -834,21 +2175,21 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="63">
+    <row r="7" spans="1:12" ht="47.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -863,34 +2204,34 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="78.75">
+    <row r="9" spans="1:12" ht="63">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -905,16 +2246,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -924,21 +2265,21 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="63">
+    <row r="11" spans="1:12" ht="47.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -953,16 +2294,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -972,21 +2313,21 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="110.25">
+    <row r="13" spans="1:12" ht="78.75">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>

--- a/data/minfin/7_questions.xlsx
+++ b/data/minfin/7_questions.xlsx
@@ -99,9 +99,6 @@
     <t>Основные статьи, Доходы, Прогноз доходов, Федеральный, Бюджет, 2017</t>
   </si>
   <si>
-    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году общий объем доходов федерального бюджета составит 13487 млрд. рублей. Из них нефтегазовые доходы составят 5050 млрд. рублей, НДС – 4895 млрд. рублей, Налог на прибыль - 600 млрд. рублей, Акцизы – 872 млрд. рублей, Таможенные пошлины – 527 млрд. рублей, прочие доходы составят 1542 млрд. рублей</t>
-  </si>
-  <si>
     <t>Основные статьи расходов бюджета в 2017 году?</t>
   </si>
   <si>
@@ -120,15 +117,9 @@
     <t>Средняя цена, нефть марки Urals, 2016</t>
   </si>
   <si>
-    <t>В 2016 году средняя цена на нефть марки Urals составила 41,7 долларов за баррель</t>
-  </si>
-  <si>
     <t>Какой был средний курс рубля к доллару США в 2016 году?</t>
   </si>
   <si>
-    <t>Средний курс рубля к доллару США в 2016 году составил 66,9 рублей за доллар</t>
-  </si>
-  <si>
     <t>Средний курс, рубль к доллару, доллар США, 2016</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>цена на нефть, Из расчета, Составлен, Федеральный бюджет, 2017</t>
   </si>
   <si>
-    <t>Федеральный бюджет 2017 года составлен из расчета стоимости нефти марки Urals в 40 долларов за баррель</t>
-  </si>
-  <si>
     <t>В каких валютах Минфин России выпускает ОФЗ?</t>
   </si>
   <si>
@@ -156,34 +144,22 @@
     <t>Процент, Доля, Исполнено, Доходы, Федеральный бюджет, Нефтегазовые доходы, 2016, годовая отчетность</t>
   </si>
   <si>
-    <t>Нефтегазовые доходы в 2016 году составили 36,4% доходов федерального бюджета Российской федерации</t>
-  </si>
-  <si>
     <t>Какая сумма доходов от инвестиции средств фонда в 2016 году?</t>
   </si>
   <si>
     <t>Сумма, доходов, исполнения, инвестиции средств фонда, Резервный фонд, 2016, годовая отчетность</t>
   </si>
   <si>
-    <t>Доходы от инвестирования средств Резервного фонда в 2016 году составили 26,4 млрд. рублей</t>
-  </si>
-  <si>
     <t>Какова валютная структура средств Резервного фонда?</t>
   </si>
   <si>
     <t>Валютная, Структура средств, Резервный фонд</t>
   </si>
   <si>
-    <t>Министерство финансов Российской Федерации утвердило валютную структуру средств Резервного фонда: средства в долларах США составляют 45% от объема фонда, в Евро – 45%, в Фунтах стерлингов – 10%</t>
-  </si>
-  <si>
     <t>Какой объединенный документ заменит в 2017 году «Основные направления бюджетной политики»?</t>
   </si>
   <si>
     <t>Объединенный документ, Основные направления бюджетной политики, Заменит, 2017, Налоговая политика, Таможенно-тарифная политика</t>
-  </si>
-  <si>
-    <t>В 2017 году документ «Основные направления бюджетной политики» будет заменен на объединенный документ «Основные направления бюджетной, налоговой и таможенно-тарифной политики»</t>
   </si>
   <si>
     <t>Что определяют «бюджетные правила»?</t>
@@ -1531,14 +1507,85 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve"> субъектов Российской Федерации: 
+Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округа, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В две тысячи семнадцатом году регионами «донорами» являются </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тринадцать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округа, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
     </r>
   </si>
   <si>
-    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году общий объем расходов федерального бюджета составит 16241 млрд. рублей. Из них расходы на социальную политику составят 31,4%, на секретные и строго секретные – 17%, на экономику – 12,9%, на общегосударственные вопросы – 7%, на безопасность и правоохранительную деятельность – 7,7%, на оборону – 6,3%</t>
-  </si>
-  <si>
-    <t>В 2017 году регионами «донорами» являются 13 субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округа, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
+    <t>В две тысячи семнадцатом году документ «Основные направления бюджетной политики» будет заменен на объединенный документ «Основные направления бюджетной, налоговой и таможенно-тарифной политики»</t>
+  </si>
+  <si>
+    <t>В две тысячи шестнадцатом году средняя цена на нефть марки Urals составила сорок одна целая семь десятых долларов за баррель</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии с Федеральным законом о Федеральном бюджете на две тысячи семнадцатый год и плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> две тысячи семнадцатом году общий объем доходов федерального бюджета составит  тринадцать тысяч четыреста восемьдесят семь миллиардов рублей. Из них нефтегазовые доходы составят тридцать семь целых четыре десятых процента, НДС – тридцать шесть целых три десятых процента, Налог на прибыль - четыре целых пять десятых процента</t>
+    </r>
+  </si>
+  <si>
+    <t>В соответствии с Федеральным законом о Федеральном бюджете на две тысячи семнадцатый год и плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов в две тысячи семнадцатом году общий объем расходов федерального бюджета составит шестнадцать целых двести сорок сорок один миллиард рублей. Из них расходы на социальную политику составят тридцать одна целая черыре десятых процента, на секретные и строго секретные – семнадцать процента, на экономику –  двенадцать целых девять десятых процента, на общегосударственные вопросы – семь процента, на безопасность и правоохранительную деятельность – семь целых семь десятых процента, на оборону – шесть целых три десятых процента</t>
+  </si>
+  <si>
+    <t>Средний курс рубля к доллару США в две тысячи шестнадцатом году составил шестьдесят шесть целых девять десятых рублей за доллар</t>
+  </si>
+  <si>
+    <t>Федеральный бюджет две тысячи семнадцатого года составлен из расчета стоимости нефти марки Urals в сорок долларов за баррель</t>
+  </si>
+  <si>
+    <t>Нефтегазовые доходы в две тысячи шестнадцатом году составили тридцать шесть целых четыре десятых процента доходов федерального бюджета Российской федерации</t>
+  </si>
+  <si>
+    <t>Доходы от инвестирования средств Резервного фонда в две тысячи шестнадцатом году составили двадцать шесть целых четыре десятых миллиарда рублей</t>
+  </si>
+  <si>
+    <t>Министерство финансов Российской Федерации утвердило валютную структуру средств Резервного фонда: средства в долларах США составляют сорок пять процентов от объема фонда, в Евро – сорок пять процентов, в Фунтах стерлингов – десять процентов</t>
   </si>
 </sst>
 </file>
@@ -1995,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -2063,10 +2110,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
@@ -2079,21 +2126,21 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="141.75">
+    <row r="3" spans="1:12" ht="171.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -2103,21 +2150,21 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="78.75">
+    <row r="4" spans="1:12" ht="99" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2132,16 +2179,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2156,16 +2203,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2180,16 +2227,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -2204,16 +2251,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2222,16 +2269,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -2246,16 +2293,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2265,21 +2312,21 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="47.25">
+    <row r="11" spans="1:12" ht="63">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -2294,16 +2341,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2313,21 +2360,21 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="78.75">
+    <row r="13" spans="1:12" ht="88.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>

--- a/data/minfin/7_questions.xlsx
+++ b/data/minfin/7_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -102,9 +102,6 @@
     <t>Основные статьи расходов бюджета в 2017 году?</t>
   </si>
   <si>
-    <t>Основные статьи, Расходы, План расходов, Федеральный, Бюджет, 2017</t>
-  </si>
-  <si>
     <t>Какие регионы являются «донорами», то есть не получающими дотации на выравнивание бюджетной обеспеченности в 2017 году?</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>Из расчета каких цен на нефть составлен федеральный бюджет на 2017 год?</t>
-  </si>
-  <si>
-    <t>цена на нефть, Из расчета, Составлен, Федеральный бюджет, 2017</t>
   </si>
   <si>
     <t>В каких валютах Минфин России выпускает ОФЗ?</t>
@@ -1586,13 +1580,19 @@
   </si>
   <si>
     <t>Министерство финансов Российской Федерации утвердило валютную структуру средств Резервного фонда: средства в долларах США составляют сорок пять процентов от объема фонда, в Евро – сорок пять процентов, в Фунтах стерлингов – десять процентов</t>
+  </si>
+  <si>
+    <t>Основные статьи, Расходы, План, Федеральный, Бюджет, Текущий год, 2017</t>
+  </si>
+  <si>
+    <t>Цена, Нефть, Расчет, Стоимость, Составлен, Федеральный бюджет, 2017, Текущий год</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1664,6 +1664,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1691,7 +1698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1719,6 +1726,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2032,21 +2042,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
@@ -2064,7 +2074,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="138.75" customHeight="1">
+    <row r="2" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2110,10 +2120,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
@@ -2126,7 +2136,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="171.75" customHeight="1">
+    <row r="3" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2134,13 +2144,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -2150,21 +2160,21 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="99" customHeight="1">
+    <row r="4" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2174,21 +2184,21 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2198,21 +2208,21 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2222,21 +2232,21 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="47.25">
+    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -2246,39 +2256,39 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="63">
+    <row r="9" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -2288,21 +2298,21 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="47.25">
+    <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2312,21 +2322,21 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="63">
+    <row r="11" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -2336,21 +2346,21 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="134.25" customHeight="1">
+    <row r="12" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2360,21 +2370,21 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="88.5" customHeight="1">
+    <row r="13" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2384,7 +2394,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
@@ -2397,7 +2407,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
   </sheetData>

--- a/data/minfin/7_questions.xlsx
+++ b/data/minfin/7_questions.xlsx
@@ -1582,10 +1582,10 @@
     <t>Министерство финансов Российской Федерации утвердило валютную структуру средств Резервного фонда: средства в долларах США составляют сорок пять процентов от объема фонда, в Евро – сорок пять процентов, в Фунтах стерлингов – десять процентов</t>
   </si>
   <si>
-    <t>Основные статьи, Расходы, План, Федеральный, Бюджет, Текущий год, 2017</t>
-  </si>
-  <si>
     <t>Цена, Нефть, Расчет, Стоимость, Составлен, Федеральный бюджет, 2017, Текущий год</t>
+  </si>
+  <si>
+    <t>Основные статьи, Расходы, Траты, Тратить, План, Федеральный, Бюджет, Текущий год, 2017</t>
   </si>
 </sst>
 </file>
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -2246,7 +2246,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>

--- a/data/minfin/7_questions.xlsx
+++ b/data/minfin/7_questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -163,32 +163,6 @@
   </si>
   <si>
     <r>
-      <t>«Бюджетное правило»</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>это механизм формирования российского бюджета определяет максимальный уровень расходов бюджета, исходя из цены на нефть. Основными функциями бюджетного правила являются определение алгоритма распределения нефтегазовых доходов в части суверенных фондов и установление ограничения на расходную часть бюджета</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">В настоящее время Министерство финансов Российской Федерации выпускает </t>
     </r>
     <r>
@@ -1506,6 +1480,363 @@
     </r>
   </si>
   <si>
+    <t>В две тысячи семнадцатом году документ «Основные направления бюджетной политики» будет заменен на объединенный документ «Основные направления бюджетной, налоговой и таможенно-тарифной политики»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии с Федеральным законом о Федеральном бюджете на две тысячи семнадцатый год и плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> две тысячи семнадцатом году общий объем доходов федерального бюджета составит  тринадцать тысяч четыреста восемьдесят семь миллиардов рублей. Из них нефтегазовые доходы составят тридцать семь целых четыре десятых процента, НДС – тридцать шесть целых три десятых процента, Налог на прибыль - четыре целых пять десятых процента</t>
+    </r>
+  </si>
+  <si>
+    <t>Федеральный бюджет две тысячи семнадцатого года составлен из расчета стоимости нефти марки Urals в сорок долларов за баррель</t>
+  </si>
+  <si>
+    <t>Министерство финансов Российской Федерации утвердило валютную структуру средств Резервного фонда: средства в долларах США составляют сорок пять процентов от объема фонда, в Евро – сорок пять процентов, в Фунтах стерлингов – десять процентов</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В соответствии с Федеральным законом о Федеральном бюджете на две тысячи семнадцатый год и плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов в две тысячи семнадцатом году общий объем расходов федерального бюджета составит </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>шестнадцать тысяч двести сорок один миллиард</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> рублей. Из них расходы на социальную политику составят </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">тридцать одна целая черыре десятых </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">процента, на секретные и строго секретные – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>семнадцать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> процентов, на экономику –  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">двенадцать целых девять десятых </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">процента, на общегосударственные вопросы – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>семь</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> процентов, на безопасность и правоохранительную деятельность – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>семь целых семь десятых процента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на оборону – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>шесть целых три десятых процента</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Нефтегазовые доходы в две тысячи шестнадцатом году составили </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тридцать шесть целых четыре десятых</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> процента доходов федерального бюджета Российской федерации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В две тысячи шестнадцатом году средняя цена на нефть марки Urals составила </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сорок</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>один доллар семьдесят центов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> за баррель</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Средний курс рубля к доллару США в две тысячи шестнадцатом году составил </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">шестьдесят шесть рублей девяносто копеек </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>за доллар</t>
+    </r>
+  </si>
+  <si>
+    <t>Основные статьи, Расходы, Траты, Тратить, План, Федеральный, Бюджет, Текущий год, 2017</t>
+  </si>
+  <si>
+    <t>Цена, Нефть, Расчет, Стоимость, Составлен, Федеральный бюджет, 2017, Текущий год</t>
+  </si>
+  <si>
+    <r>
+      <t>«Бюджетное правило»</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">это механизм формирования российского бюджета, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>который</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> определяет максимальный уровень расходов бюджета, исходя из цены на нефть. Основными функциями бюджетного правила являются определение алгоритма распределения нефтегазовых доходов в части суверенных фондов и установление ограничения на расходную часть бюджета</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Доходы от инвестирования средств Резервного фонда в две тысячи шестнадцатом году составили </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">двадцать шесть миллиардов четыреста миллионов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>рублей</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">В две тысячи семнадцатом году регионами «донорами» являются </t>
     </r>
@@ -1528,71 +1859,15 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округа, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
-    </r>
-  </si>
-  <si>
-    <t>В две тысячи семнадцатом году документ «Основные направления бюджетной политики» будет заменен на объединенный документ «Основные направления бюджетной, налоговой и таможенно-тарифной политики»</t>
-  </si>
-  <si>
-    <t>В две тысячи шестнадцатом году средняя цена на нефть марки Urals составила сорок одна целая семь десятых долларов за баррель</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В соответствии с Федеральным законом о Федеральном бюджете на две тысячи семнадцатый год и плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> две тысячи семнадцатом году общий объем доходов федерального бюджета составит  тринадцать тысяч четыреста восемьдесят семь миллиардов рублей. Из них нефтегазовые доходы составят тридцать семь целых четыре десятых процента, НДС – тридцать шесть целых три десятых процента, Налог на прибыль - четыре целых пять десятых процента</t>
-    </r>
-  </si>
-  <si>
-    <t>В соответствии с Федеральным законом о Федеральном бюджете на две тысячи семнадцатый год и плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов в две тысячи семнадцатом году общий объем расходов федерального бюджета составит шестнадцать целых двести сорок сорок один миллиард рублей. Из них расходы на социальную политику составят тридцать одна целая черыре десятых процента, на секретные и строго секретные – семнадцать процента, на экономику –  двенадцать целых девять десятых процента, на общегосударственные вопросы – семь процента, на безопасность и правоохранительную деятельность – семь целых семь десятых процента, на оборону – шесть целых три десятых процента</t>
-  </si>
-  <si>
-    <t>Средний курс рубля к доллару США в две тысячи шестнадцатом году составил шестьдесят шесть целых девять десятых рублей за доллар</t>
-  </si>
-  <si>
-    <t>Федеральный бюджет две тысячи семнадцатого года составлен из расчета стоимости нефти марки Urals в сорок долларов за баррель</t>
-  </si>
-  <si>
-    <t>Нефтегазовые доходы в две тысячи шестнадцатом году составили тридцать шесть целых четыре десятых процента доходов федерального бюджета Российской федерации</t>
-  </si>
-  <si>
-    <t>Доходы от инвестирования средств Резервного фонда в две тысячи шестнадцатом году составили двадцать шесть целых четыре десятых миллиарда рублей</t>
-  </si>
-  <si>
-    <t>Министерство финансов Российской Федерации утвердило валютную структуру средств Резервного фонда: средства в долларах США составляют сорок пять процентов от объема фонда, в Евро – сорок пять процентов, в Фунтах стерлингов – десять процентов</t>
-  </si>
-  <si>
-    <t>Цена, Нефть, Расчет, Стоимость, Составлен, Федеральный бюджет, 2017, Текущий год</t>
-  </si>
-  <si>
-    <t>Основные статьи, Расходы, Траты, Тратить, План, Федеральный, Бюджет, Текущий год, 2017</t>
+      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округ+а, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1671,13 +1946,34 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1698,15 +1994,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1722,13 +2015,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2052,16 +2354,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="103.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="41" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="68.5703125" style="2" customWidth="1"/>
@@ -2075,340 +2377,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/minfin/7_questions.xlsx
+++ b/data/minfin/7_questions.xlsx
@@ -1859,7 +1859,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округ+а, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
+      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округ\+а, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
     </r>
   </si>
 </sst>
@@ -2354,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/minfin/7_questions.xlsx
+++ b/data/minfin/7_questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -1766,6 +1766,58 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Доходы от инвестирования средств Резервного фонда в две тысячи шестнадцатом году составили </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">двадцать шесть миллиардов четыреста миллионов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>рублей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В две тысячи семнадцатом году регионами «донорами» являются </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тринадцать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округ\+а, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>«Бюджетное правило»</t>
     </r>
     <r>
@@ -1807,59 +1859,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> определяет максимальный уровень расходов бюджета, исходя из цены на нефть. Основными функциями бюджетного правила являются определение алгоритма распределения нефтегазовых доходов в части суверенных фондов и установление ограничения на расходную часть бюджета</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Доходы от инвестирования средств Резервного фонда в две тысячи шестнадцатом году составили </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">двадцать шесть миллиардов четыреста миллионов </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>рублей</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В две тысячи семнадцатом году регионами «донорами» являются </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>тринадцать</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округ\+а, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
+      <t xml:space="preserve"> определяет максимальный уровень расходов бюджета, исходя из цен\+ы на нефть. Основными функциями бюджетного правила являются определение алгоритма распределения нефтегазовых доходов в части суверенных фондов и установление ограничения на расходную часть бюджета</t>
     </r>
   </si>
 </sst>
@@ -2354,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2470,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>58</v>
@@ -2608,7 +2608,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
@@ -2680,7 +2680,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>57</v>

--- a/data/minfin/7_questions.xlsx
+++ b/data/minfin/7_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1516,6 +1516,186 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Нефтегазовые доходы в две тысячи шестнадцатом году составили </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тридцать шесть целых четыре десятых</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> процента доходов федерального бюджета Российской федерации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В две тысячи шестнадцатом году средняя цена на нефть марки Urals составила </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сорок</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>один доллар семьдесят центов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> за баррель</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Средний курс рубля к доллару США в две тысячи шестнадцатом году составил </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">шестьдесят шесть рублей девяносто копеек </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>за доллар</t>
+    </r>
+  </si>
+  <si>
+    <t>Основные статьи, Расходы, Траты, Тратить, План, Федеральный, Бюджет, Текущий год, 2017</t>
+  </si>
+  <si>
+    <t>Цена, Нефть, Расчет, Стоимость, Составлен, Федеральный бюджет, 2017, Текущий год</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Доходы от инвестирования средств Резервного фонда в две тысячи шестнадцатом году составили </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">двадцать шесть миллиардов четыреста миллионов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>рублей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«Бюджетное правило»</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">это механизм формирования российского бюджета, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>который</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> определяет максимальный уровень расходов бюджета, исходя из цен\+ы на нефть. Основными функциями бюджетного правила являются определение алгоритма распределения нефтегазовых доходов в части суверенных фондов и установление ограничения на расходную часть бюджета</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">В соответствии с Федеральным законом о Федеральном бюджете на две тысячи семнадцатый год и плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов в две тысячи семнадцатом году общий объем расходов федерального бюджета составит </t>
     </r>
     <r>
@@ -1548,7 +1728,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">тридцать одна целая черыре десятых </t>
+      <t xml:space="preserve">тридцать одну целую четыре десятых </t>
     </r>
     <r>
       <rPr>
@@ -1658,140 +1838,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Нефтегазовые доходы в две тысячи шестнадцатом году составили </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>тридцать шесть целых четыре десятых</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> процента доходов федерального бюджета Российской федерации</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В две тысячи шестнадцатом году средняя цена на нефть марки Urals составила </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>сорок</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>один доллар семьдесят центов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> за баррель</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Средний курс рубля к доллару США в две тысячи шестнадцатом году составил </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">шестьдесят шесть рублей девяносто копеек </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>за доллар</t>
-    </r>
-  </si>
-  <si>
-    <t>Основные статьи, Расходы, Траты, Тратить, План, Федеральный, Бюджет, Текущий год, 2017</t>
-  </si>
-  <si>
-    <t>Цена, Нефть, Расчет, Стоимость, Составлен, Федеральный бюджет, 2017, Текущий год</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Доходы от инвестирования средств Резервного фонда в две тысячи шестнадцатом году составили </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">двадцать шесть миллиардов четыреста миллионов </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>рублей</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">В две тысячи семнадцатом году регионами «донорами» являются </t>
     </r>
     <r>
@@ -1813,61 +1859,15 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округ\+а, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Ненецкий автономный округ, Республика Татарстан</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«Бюджетное правило»</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">это механизм формирования российского бюджета, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>который</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> определяет максимальный уровень расходов бюджета, исходя из цен\+ы на нефть. Основными функциями бюджетного правила являются определение алгоритма распределения нефтегазовых доходов в части суверенных фондов и установление ограничения на расходную часть бюджета</t>
+      <t xml:space="preserve"> субъектов Российской Федерации: Москва, Санкт-Петербург, Ханты-Мансийский и Ямало-Ненецкий автономные округ\+а, Тюменская, Калужская, Сахалинская, Самарская, Свердловская, Московская и Ленинградская области, Н\+енецкий автономный округ, Республика Татарстан</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2344,21 +2344,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
@@ -2376,7 +2376,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="138.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="190.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2446,13 +2446,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4"/>
@@ -2462,7 +2462,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="99" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>58</v>
@@ -2486,7 +2486,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="51" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>50</v>
@@ -2510,7 +2510,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="31.5">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
@@ -2534,7 +2534,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="47.25">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2558,7 +2558,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="47.25">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="63">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>53</v>
@@ -2600,7 +2600,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="47.25">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
@@ -2624,7 +2624,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="63">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="134.25" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="121.5" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>57</v>
@@ -2696,7 +2696,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
@@ -2709,7 +2709,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="D15" s="6"/>
     </row>
   </sheetData>
